--- a/заказы/статистика филиалы/2023/11,23/01,11,23 КИ/дв 01,11,23 мррсч.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/01,11,23 КИ/дв 01,11,23 мррсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\01,11,23 филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\01,11,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC8A76B-D072-41F2-9CF9-0EE805F838CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CA936F-19F4-4236-9831-F8C59A83CAEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$W$59</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -292,10 +292,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -437,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -488,6 +492,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,6 +526,9 @@
             <v>Период: 25.10.2023 - 01.11.2023</v>
           </cell>
         </row>
+        <row r="2">
+          <cell r="A2"/>
+        </row>
         <row r="3">
           <cell r="A3" t="str">
             <v>Номенклатура</v>
@@ -541,6 +551,11 @@
             <v>АКЦИЯ</v>
           </cell>
         </row>
+        <row r="5">
+          <cell r="A5"/>
+          <cell r="B5"/>
+          <cell r="C5"/>
+        </row>
         <row r="6">
           <cell r="A6" t="str">
             <v>005  Колбаса Докторская ГОСТ, Вязанка вектор,ВЕС. ПОКОМ</v>
@@ -559,6 +574,7 @@
           <cell r="B7" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C7"/>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -567,6 +583,7 @@
           <cell r="B8" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C8"/>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -575,6 +592,7 @@
           <cell r="B9" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C9"/>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -583,6 +601,7 @@
           <cell r="B10" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C10"/>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -591,6 +610,7 @@
           <cell r="B11" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C11"/>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -621,6 +641,7 @@
           <cell r="B14" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C14"/>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -640,6 +661,7 @@
           <cell r="B16" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C16"/>
         </row>
         <row r="17">
           <cell r="A17" t="str">
@@ -670,6 +692,7 @@
           <cell r="B19" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C19"/>
         </row>
         <row r="20">
           <cell r="A20" t="str">
@@ -678,6 +701,7 @@
           <cell r="B20" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C20"/>
         </row>
         <row r="21">
           <cell r="A21" t="str">
@@ -719,6 +743,7 @@
           <cell r="B24" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C24"/>
         </row>
         <row r="25">
           <cell r="A25" t="str">
@@ -727,6 +752,7 @@
           <cell r="B25" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C25"/>
         </row>
         <row r="26">
           <cell r="A26" t="str">
@@ -735,6 +761,7 @@
           <cell r="B26" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C26"/>
         </row>
         <row r="27">
           <cell r="A27" t="str">
@@ -743,6 +770,7 @@
           <cell r="B27" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C27"/>
         </row>
         <row r="28">
           <cell r="A28" t="str">
@@ -751,6 +779,7 @@
           <cell r="B28" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C28"/>
         </row>
         <row r="29">
           <cell r="A29" t="str">
@@ -759,6 +788,7 @@
           <cell r="B29" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C29"/>
         </row>
         <row r="30">
           <cell r="A30" t="str">
@@ -844,6 +874,7 @@
           <cell r="B37" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C37"/>
         </row>
         <row r="38">
           <cell r="A38" t="str">
@@ -863,6 +894,7 @@
           <cell r="B39" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C39"/>
         </row>
         <row r="40">
           <cell r="A40" t="str">
@@ -926,6 +958,7 @@
           <cell r="B45" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C45"/>
         </row>
         <row r="46">
           <cell r="A46" t="str">
@@ -934,6 +967,7 @@
           <cell r="B46" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C46"/>
         </row>
         <row r="47">
           <cell r="A47" t="str">
@@ -953,6 +987,7 @@
           <cell r="B48" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C48"/>
         </row>
         <row r="49">
           <cell r="A49" t="str">
@@ -961,6 +996,7 @@
           <cell r="B49" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C49"/>
         </row>
         <row r="50">
           <cell r="A50" t="str">
@@ -969,6 +1005,7 @@
           <cell r="B50" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C50"/>
         </row>
         <row r="51">
           <cell r="A51" t="str">
@@ -977,6 +1014,7 @@
           <cell r="B51" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C51"/>
         </row>
         <row r="52">
           <cell r="A52" t="str">
@@ -985,6 +1023,7 @@
           <cell r="B52" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C52"/>
         </row>
         <row r="53">
           <cell r="A53" t="str">
@@ -993,6 +1032,7 @@
           <cell r="B53" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C53"/>
         </row>
         <row r="54">
           <cell r="A54" t="str">
@@ -1001,6 +1041,7 @@
           <cell r="B54" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C54"/>
         </row>
         <row r="55">
           <cell r="A55" t="str">
@@ -1009,6 +1050,7 @@
           <cell r="B55" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C55"/>
         </row>
         <row r="56">
           <cell r="A56" t="str">
@@ -1017,6 +1059,7 @@
           <cell r="B56" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C56"/>
         </row>
         <row r="57">
           <cell r="A57" t="str">
@@ -1025,6 +1068,7 @@
           <cell r="B57" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C57"/>
         </row>
         <row r="58">
           <cell r="A58" t="str">
@@ -1033,6 +1077,7 @@
           <cell r="B58" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C58"/>
         </row>
         <row r="59">
           <cell r="A59" t="str">
@@ -1041,9 +1086,10 @@
           <cell r="B59" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C59"/>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3454,8 +3500,8 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y14" sqref="Y14"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -3826,7 +3872,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="7" t="s">
